--- a/src/main/resources/static/excel/资源信息模版.xlsx
+++ b/src/main/resources/static/excel/资源信息模版.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="9600" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="模版" sheetId="1" r:id="rId1"/>
+    <sheet name="柯桥" sheetId="1" r:id="rId1"/>
+    <sheet name="萧山" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>街道</t>
     <rPh sb="0" eb="1">
@@ -91,6 +92,39 @@
     <rPh sb="0" eb="1">
       <t>bei zhu</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州湾</t>
+    <rPh sb="0" eb="1">
+      <t>hang zhou w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐贤</t>
+    <rPh sb="0" eb="1">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhelin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hangzhou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hzhang1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,6 +486,79 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>111</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excel/资源信息模版.xlsx
+++ b/src/main/resources/static/excel/资源信息模版.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="柯桥" sheetId="1" r:id="rId1"/>
-    <sheet name="萧山" sheetId="2" r:id="rId2"/>
+    <sheet name="重命名为区域" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>街道</t>
     <rPh sb="0" eb="1">
@@ -92,39 +91,6 @@
     <rPh sb="0" eb="1">
       <t>bei zhu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州湾</t>
-    <rPh sb="0" eb="1">
-      <t>hang zhou w</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐贤</t>
-    <rPh sb="0" eb="1">
-      <t>qi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhelin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hangzhou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hzhang1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,79 +452,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>111</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>110</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
